--- a/medicine/Enfance/Pakita/Pakita.xlsx
+++ b/medicine/Enfance/Pakita/Pakita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pakita est le nom de scène d'une chanteuse, animatrice[pas clair], écrivaine et institutrice française, née le 25 mars 1959.
 </t>
@@ -511,9 +523,11 @@
           <t>Spectacles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de ses spectacles, elle est une fée qui part souvent à l'aventure au pays des fées. Pillywiggin multicolore est le titre d'une chanson pour les enfants dans l'album Viens vite... Je t'invite de Pakita, sorti en 2007[1]. En mars 2021, à l’occasion du premier salon francophone de littérature jeunesse du Nord-Ouest américain à Seattle, Litt. Jeunesse[2],[3], Pakita accompagnée de l’illustrateur Jean-Philippe Chabot présente la série « L’école d’Agathe »[4] et anime un spectacle ludique virtuel avec les personnages de cette série.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de ses spectacles, elle est une fée qui part souvent à l'aventure au pays des fées. Pillywiggin multicolore est le titre d'une chanson pour les enfants dans l'album Viens vite... Je t'invite de Pakita, sorti en 2007. En mars 2021, à l’occasion du premier salon francophone de littérature jeunesse du Nord-Ouest américain à Seattle, Litt. Jeunesse Pakita accompagnée de l’illustrateur Jean-Philippe Chabot présente la série « L’école d’Agathe » et anime un spectacle ludique virtuel avec les personnages de cette série.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pakita a écrit soixante douze livres pour les enfants de cinq à sept ans en une série, « L'école d'Agathe »[4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pakita a écrit soixante douze livres pour les enfants de cinq à sept ans en une série, « L'école d'Agathe »:
 </t>
         </is>
       </c>
